--- a/About NEB.xlsx
+++ b/About NEB.xlsx
@@ -16,7 +16,8 @@
     <sheet name="JS API" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Introduction!$A$1:$U$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Introduction!$A$1:$U$203</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'JS API'!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arg2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,18 +76,9 @@
     <t>Currently NEB can achieve the function:</t>
   </si>
   <si>
-    <t>①After starting the application it can load the specified url html file.</t>
-  </si>
-  <si>
-    <t>②Loading html By calling the js interface provided by NEB, you can use some of the features of the pda including the scan code</t>
-  </si>
-  <si>
     <t>Notice：</t>
   </si>
   <si>
-    <t>①The server directory where the html file was accessed must be copied from the generated Cordova project.</t>
-  </si>
-  <si>
     <t>②Please set PDA's scan mode to API output mode. KBW and direct output is not supported at this time.</t>
   </si>
   <si>
@@ -122,18 +110,6 @@
   </si>
   <si>
     <t>Modify the following URL for your specified url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start the simulator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can access the other specified URLs via the Settings button in the upper right corner.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can see that NEB is start up and running, loaded with the URL on the server. Want to experience the actual effect, please test on Newland's PDA.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,13 +135,78 @@
     <t>= 0 Turn off the voice prompts
 = 1 Turn on the voice prompts</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①Boot automatically activated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③After starting the application it can load the specified url html file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②Full screen display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④Loading html By calling the js interface provided by NEB, you can use some of the features of the pda including the scan code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To be solved:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①The server directory where the html file was accessed must be copied from the NlScanCordova project.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect the Nquire300 and start NEB Application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Now You can see that NEB is start up and running, loaded with the URL on the server. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlscan.plugins.barcodescanner.show(arg1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This method provide the results of the scan data.
+you can modify the "myFunc.prototype.show" method in"NlScanCordova \ platforms \ android \ app \ src \ main \ assets \ www \ plugins \ nlscan-plugin-barcodescanner \ www \ BarcodeScanner.js"   to assign the scan result data to the specified control.
+as the NEB demo here,it is assign to a textarea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arg1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arg1:the scan result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About NEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can use the JS API provided by NEB to get the results of  scan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit the application and then enter the application, there will be a short time does not indicate the scan results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +219,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,29 +279,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,14 +326,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>151619</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>40941</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>40940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,13 +370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142324</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>159865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -364,13 +414,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>494933</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>164414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -408,13 +458,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>58039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -451,13 +501,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>380419</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>149491</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -495,21 +545,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>599100</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>21177</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273600</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>16941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4ACADF3-2FFE-4A16-8C13-9498434E3091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7805BC91-6EB7-48B2-8737-1D14201DF74E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -518,21 +568,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="24384000"/>
-          <a:ext cx="3037500" cy="5400000"/>
+          <a:off x="609600" y="26535529"/>
+          <a:ext cx="5760000" cy="4320000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,23 +587,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>599100</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>21177</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>53874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18">
+        <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E35779-9F60-41D1-89CB-A80EBA6205E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B6D7CA-9697-42AD-8F77-902EEE8F7222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,328 +612,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="24384000"/>
-          <a:ext cx="3037500" cy="5400000"/>
+          <a:off x="609600" y="26176942"/>
+          <a:ext cx="4715435" cy="3819050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>82189</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>21177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D9C2CD-983C-4E06-B38D-CD7DAD4EB2D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="24384000"/>
-          <a:ext cx="3130189" cy="5400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>573741</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="矩形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92565A30-F242-4D84-9B84-80747EB8A252}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3299012" y="24617082"/>
-          <a:ext cx="322729" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AB2F4F-0B2E-4CC5-97C2-89CE45B1FDCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074024" y="26445882"/>
-          <a:ext cx="2662517" cy="1066800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>170329</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直接箭头连接符 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EA123B-6381-42BA-98E0-A5E30F913BEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3612776" y="24930847"/>
-          <a:ext cx="1434353" cy="1541929"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>591671</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直接箭头连接符 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCE9A3E-AEF5-4A71-98D4-9E0B43009EB1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7736541" y="26979282"/>
-          <a:ext cx="1389530" cy="13447"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="63500">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1254,125 +991,145 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>5</v>
       </c>
-      <c r="B133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>6</v>
       </c>
-      <c r="B140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>27</v>
+      <c r="B171" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1137,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="121" max="16383" man="1"/>
+    <brk id="129" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1388,10 +1145,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D8"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1399,18 +1159,23 @@
     <col min="1" max="1" width="70.109375" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1418,64 +1183,80 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8"/>
     </row>
+    <row r="9" spans="1:4" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>